--- a/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>32260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22391</v>
+        <v>22580</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45605</v>
+        <v>45295</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1208333501639366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08386616340755237</v>
+        <v>0.08457685057807696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1708182560917924</v>
+        <v>0.1696553500930666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>19770</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12396</v>
+        <v>12054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30193</v>
+        <v>28914</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1279082120033295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08019851969456833</v>
+        <v>0.07798862725176506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1953416999410321</v>
+        <v>0.1870686052407424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -784,19 +784,19 @@
         <v>52030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39806</v>
+        <v>38813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68305</v>
+        <v>68186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.123427408216776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09442924213368845</v>
+        <v>0.09207444633533571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1620364215427013</v>
+        <v>0.1617536937238275</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>39872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28243</v>
+        <v>28909</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52719</v>
+        <v>54853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1493431164780931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1057854865222746</v>
+        <v>0.1082816675960682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1974630984101438</v>
+        <v>0.2054575022132535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -834,19 +834,19 @@
         <v>24293</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15549</v>
+        <v>15573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34400</v>
+        <v>33755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1571744352764665</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1005981434823643</v>
+        <v>0.1007580174826686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2225602601059047</v>
+        <v>0.2183913575622122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -855,19 +855,19 @@
         <v>64165</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50072</v>
+        <v>51669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80882</v>
+        <v>82275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1522145358859125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1187814084556925</v>
+        <v>0.1225699827408268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1918710325167191</v>
+        <v>0.1951743577947148</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>194849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>179122</v>
+        <v>177833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208921</v>
+        <v>208134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7298235333579702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6709159262822942</v>
+        <v>0.6660868361610472</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7825309756878696</v>
+        <v>0.7795841057666534</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>103</v>
@@ -905,19 +905,19 @@
         <v>110500</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>99632</v>
+        <v>99111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122361</v>
+        <v>121870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.714917352720204</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6446018120935003</v>
+        <v>0.6412348575378238</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7916606804410146</v>
+        <v>0.7884780290476046</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>293</v>
@@ -926,19 +926,19 @@
         <v>305349</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>287259</v>
+        <v>285057</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>324316</v>
+        <v>323160</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7243580558973115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6814450164080791</v>
+        <v>0.6762203962702047</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7693524593156923</v>
+        <v>0.7666107631424643</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>57458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43628</v>
+        <v>44001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72669</v>
+        <v>74064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1443064775882729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1095738210544611</v>
+        <v>0.1105099922664772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1825114586114227</v>
+        <v>0.1860142731692886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1051,19 +1051,19 @@
         <v>41898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30881</v>
+        <v>30113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56697</v>
+        <v>54761</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1624893137350019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1197643479379604</v>
+        <v>0.1167852296950613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2198828017570838</v>
+        <v>0.2123735472550862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -1072,19 +1072,19 @@
         <v>99356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80580</v>
+        <v>79531</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>118321</v>
+        <v>119786</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1514533913695548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1228333103540144</v>
+        <v>0.1212341502027576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.180362766498048</v>
+        <v>0.1825965309535454</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>50725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38357</v>
+        <v>38653</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>66838</v>
+        <v>67157</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1273963858102358</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0963359601355306</v>
+        <v>0.09707882900065495</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1678668091948825</v>
+        <v>0.1686677712707707</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1122,19 +1122,19 @@
         <v>43518</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32242</v>
+        <v>32043</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>56648</v>
+        <v>57006</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.168772462540518</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1250421935091904</v>
+        <v>0.1242680828262088</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2196901464649326</v>
+        <v>0.2210811123716572</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1143,19 +1143,19 @@
         <v>94243</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>78402</v>
+        <v>75365</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>114572</v>
+        <v>113999</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1436595941795322</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1195131754733209</v>
+        <v>0.1148836351771014</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1746480470736042</v>
+        <v>0.173774656994905</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>289981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272568</v>
+        <v>268438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>308672</v>
+        <v>306216</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7282971366014913</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6845635016736392</v>
+        <v>0.6741922296329086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.77523979650658</v>
+        <v>0.7690724554107181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -1193,19 +1193,19 @@
         <v>172435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157058</v>
+        <v>156473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>187644</v>
+        <v>188354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.66873822372448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6091001386382431</v>
+        <v>0.606832222560451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.727719976835516</v>
+        <v>0.7304733849380943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -1214,19 +1214,19 @@
         <v>462416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437715</v>
+        <v>436683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485594</v>
+        <v>486767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7048870144509131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6672327381266516</v>
+        <v>0.6656602727775807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7402181466233576</v>
+        <v>0.7420051646300123</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>42108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30470</v>
+        <v>30281</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57090</v>
+        <v>55586</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1372959323840644</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09935081606662155</v>
+        <v>0.09873552383274833</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1861479824412466</v>
+        <v>0.1812423635532235</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1339,19 +1339,19 @@
         <v>37989</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27251</v>
+        <v>26853</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50866</v>
+        <v>51578</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1857501570888488</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1332465179639497</v>
+        <v>0.1312969890335161</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2487079870679081</v>
+        <v>0.2521904319329926</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>71</v>
@@ -1360,19 +1360,19 @@
         <v>80097</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63165</v>
+        <v>63958</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>99636</v>
+        <v>99009</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1566808993069849</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1235599757959751</v>
+        <v>0.125110596070488</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1949019519150798</v>
+        <v>0.1936749873174572</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>48420</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36019</v>
+        <v>36086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62418</v>
+        <v>62107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.157878643076139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1174423653086119</v>
+        <v>0.1176607754712749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2035199495130856</v>
+        <v>0.2025067785679723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1410,19 +1410,19 @@
         <v>34069</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23925</v>
+        <v>24500</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47633</v>
+        <v>46460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1665819725547124</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1169835369625072</v>
+        <v>0.1197935401751169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2329037587947023</v>
+        <v>0.2271691179214932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1431,19 +1431,19 @@
         <v>82489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63259</v>
+        <v>65763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99861</v>
+        <v>100113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1613605634884321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1237437255844201</v>
+        <v>0.1286422552282376</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1953428976786421</v>
+        <v>0.1958347637057033</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>216164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198482</v>
+        <v>200557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>231402</v>
+        <v>234560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7048254245397966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6471690105384368</v>
+        <v>0.6539349130637773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7545107731452936</v>
+        <v>0.7648079200041299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -1481,19 +1481,19 @@
         <v>132460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118392</v>
+        <v>117465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148212</v>
+        <v>145553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6476678703564388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5788779525663695</v>
+        <v>0.5743478556879698</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7246849043408036</v>
+        <v>0.7116865265492065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>315</v>
@@ -1502,19 +1502,19 @@
         <v>348625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>326087</v>
+        <v>324359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>370325</v>
+        <v>370911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.681958537204583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6378711644498929</v>
+        <v>0.6344914919944999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7244069395259418</v>
+        <v>0.7255529104720367</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>51208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39007</v>
+        <v>38456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65188</v>
+        <v>67409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1267404154884301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09654230086055834</v>
+        <v>0.09517867559338267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1613410441716786</v>
+        <v>0.1668366912663681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1627,19 +1627,19 @@
         <v>53910</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40958</v>
+        <v>40330</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68123</v>
+        <v>68764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1892823799067604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1438085598980574</v>
+        <v>0.1416034141872779</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2391862775489401</v>
+        <v>0.2414389029347111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -1648,19 +1648,19 @@
         <v>105118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87114</v>
+        <v>86677</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125892</v>
+        <v>125031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1525989359600548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1264623271841838</v>
+        <v>0.1258288191398454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1827567465094899</v>
+        <v>0.1815061278485829</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>76163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62655</v>
+        <v>62193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92170</v>
+        <v>95651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1885043409275128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1550708015449623</v>
+        <v>0.153929164940155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2281224184482683</v>
+        <v>0.2367376762203907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -1698,19 +1698,19 @@
         <v>56145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43920</v>
+        <v>44316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71066</v>
+        <v>70553</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.197129738239028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1542089612105574</v>
+        <v>0.1555968284515512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2495181482605418</v>
+        <v>0.2477172395391621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -1719,19 +1719,19 @@
         <v>132308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112165</v>
+        <v>113327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152753</v>
+        <v>154578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1920705866479677</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1628284396012981</v>
+        <v>0.1645160379065753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.221749732151416</v>
+        <v>0.2244002807818367</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>276668</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>257494</v>
+        <v>257182</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>293527</v>
+        <v>295588</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6847552435840571</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6373009869513154</v>
+        <v>0.6365273064768036</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7264826563817036</v>
+        <v>0.7315826487536893</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>168</v>
@@ -1769,19 +1769,19 @@
         <v>174757</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>157777</v>
+        <v>157206</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>191790</v>
+        <v>190768</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6135878818542116</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5539701311565968</v>
+        <v>0.5519668838525453</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6733940724371303</v>
+        <v>0.6698072263645829</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>435</v>
@@ -1790,19 +1790,19 @@
         <v>451425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>424550</v>
+        <v>425151</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>474841</v>
+        <v>476527</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6553304773919775</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6163156852829325</v>
+        <v>0.6171884783785795</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6893233636266319</v>
+        <v>0.6917714783097412</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>183033</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -1915,19 +1915,19 @@
         <v>153567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>307</v>
@@ -1936,19 +1936,19 @@
         <v>336601</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>215180</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>188168</v>
+        <v>189348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>245773</v>
+        <v>243640</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1563946849708468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1367625222447633</v>
+        <v>0.1376198018430581</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1786298360038715</v>
+        <v>0.1770798437200174</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>149</v>
@@ -1986,19 +1986,19 @@
         <v>158026</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>136006</v>
+        <v>136073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>182016</v>
+        <v>183408</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1752441949134881</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1508252784771349</v>
+        <v>0.1509000997107398</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2018485144813637</v>
+        <v>0.2033919992856008</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>351</v>
@@ -2007,19 +2007,19 @@
         <v>373205</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>338277</v>
+        <v>338974</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>415945</v>
+        <v>409650</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1638574960525393</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1485219544206734</v>
+        <v>0.1488282812431274</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1826226624788265</v>
+        <v>0.179858649925701</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>977663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>546</v>
@@ -2057,19 +2057,19 @@
         <v>590152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1467</v>
@@ -2078,19 +2078,19 @@
         <v>1567815</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="23">
@@ -2422,19 +2422,19 @@
         <v>57103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44205</v>
+        <v>43517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71813</v>
+        <v>70547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.236625863148556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1831797759038337</v>
+        <v>0.1803299471241391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2975823705293865</v>
+        <v>0.2923385089974502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -2443,19 +2443,19 @@
         <v>48205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36850</v>
+        <v>37246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59917</v>
+        <v>60109</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2935178359808958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2243783766191286</v>
+        <v>0.2267911844770586</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.364829397710912</v>
+        <v>0.3660013560357406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -2464,19 +2464,19 @@
         <v>105308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88723</v>
+        <v>88251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123606</v>
+        <v>123433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2596647774279552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2187715110908702</v>
+        <v>0.2176075425966117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3047839379913746</v>
+        <v>0.3043570486810409</v>
       </c>
     </row>
     <row r="5">
@@ -2493,19 +2493,19 @@
         <v>43912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32406</v>
+        <v>32651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56204</v>
+        <v>56339</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1819665843522262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1342851271508197</v>
+        <v>0.1353025886644417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2329027585987909</v>
+        <v>0.2334625197695927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -2514,19 +2514,19 @@
         <v>36364</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26555</v>
+        <v>26581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48073</v>
+        <v>47787</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2214180177401157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1616917107419781</v>
+        <v>0.1618522160941478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2927141010554005</v>
+        <v>0.2909727814367347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -2535,19 +2535,19 @@
         <v>80276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65420</v>
+        <v>64272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98267</v>
+        <v>96397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1979427958768571</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1613117894078426</v>
+        <v>0.1584793143066754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.242304237130175</v>
+        <v>0.2376927825830224</v>
       </c>
     </row>
     <row r="6">
@@ -2564,19 +2564,19 @@
         <v>140306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>124651</v>
+        <v>125268</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156912</v>
+        <v>155892</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5814075524992177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5165352959385668</v>
+        <v>0.5190908016861076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6502229601509313</v>
+        <v>0.6459944368256992</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -2585,19 +2585,19 @@
         <v>79663</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67649</v>
+        <v>67905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92421</v>
+        <v>91688</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4850641462789886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4119134543774786</v>
+        <v>0.4134709311190158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5627447922997607</v>
+        <v>0.5582860231404048</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>216</v>
@@ -2606,19 +2606,19 @@
         <v>219969</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>200151</v>
+        <v>201216</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240683</v>
+        <v>240432</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5423924266951876</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4935258664898854</v>
+        <v>0.4961529783860559</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5934696144718067</v>
+        <v>0.5928495664772083</v>
       </c>
     </row>
     <row r="7">
@@ -2710,19 +2710,19 @@
         <v>89723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72477</v>
+        <v>75798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108154</v>
+        <v>106429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2171175871212201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1753840249002129</v>
+        <v>0.1834202279175777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2617175291530675</v>
+        <v>0.2575431694924376</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -2731,19 +2731,19 @@
         <v>68206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55257</v>
+        <v>54435</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83103</v>
+        <v>83460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2500667536942173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2025899607139959</v>
+        <v>0.1995769612985294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3046856288115813</v>
+        <v>0.3059949187304354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>149</v>
@@ -2752,19 +2752,19 @@
         <v>157929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134883</v>
+        <v>136234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>181090</v>
+        <v>181545</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2302181144391914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1966234750591453</v>
+        <v>0.1985925947369536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2639802514768144</v>
+        <v>0.2646436420269271</v>
       </c>
     </row>
     <row r="9">
@@ -2781,19 +2781,19 @@
         <v>89984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72136</v>
+        <v>75473</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>108408</v>
+        <v>108708</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2177481848447429</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1745592937632079</v>
+        <v>0.1826356511810167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2623327875354347</v>
+        <v>0.2630595158781071</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>63</v>
@@ -2802,19 +2802,19 @@
         <v>63351</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50910</v>
+        <v>51066</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78888</v>
+        <v>76904</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2322662237301827</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.186652721216573</v>
+        <v>0.1872272833154309</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2892323052412381</v>
+        <v>0.28195738783707</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>145</v>
@@ -2823,19 +2823,19 @@
         <v>153334</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>130088</v>
+        <v>132524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>176940</v>
+        <v>175625</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2235205300905842</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1896337374732377</v>
+        <v>0.1931846476936623</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2579315291259581</v>
+        <v>0.2560141067161207</v>
       </c>
     </row>
     <row r="10">
@@ -2852,19 +2852,19 @@
         <v>233539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>210761</v>
+        <v>211282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253847</v>
+        <v>254765</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.565134228034037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5100130553304811</v>
+        <v>0.5112737831642228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6142745962189584</v>
+        <v>0.6164969200290756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -2873,19 +2873,19 @@
         <v>141194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123923</v>
+        <v>123612</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156786</v>
+        <v>156250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5176670225756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.454345185580383</v>
+        <v>0.4532053713143285</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5748322041897491</v>
+        <v>0.5728683512613489</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>343</v>
@@ -2894,19 +2894,19 @@
         <v>374734</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>344656</v>
+        <v>349782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>399658</v>
+        <v>402533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5462613554702245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5024154995920963</v>
+        <v>0.5098891321900102</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5825941566234376</v>
+        <v>0.5867854411928962</v>
       </c>
     </row>
     <row r="11">
@@ -2998,19 +2998,19 @@
         <v>123926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104415</v>
+        <v>104168</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143376</v>
+        <v>143846</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3416117168690143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2878278720076106</v>
+        <v>0.2871452885243221</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3952269890778507</v>
+        <v>0.3965221155148541</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>95</v>
@@ -3019,19 +3019,19 @@
         <v>95242</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79197</v>
+        <v>80484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109940</v>
+        <v>110909</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3533713843899196</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2938402310633745</v>
+        <v>0.2986138724375069</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4079026377533676</v>
+        <v>0.4114992294744762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>203</v>
@@ -3040,19 +3040,19 @@
         <v>219169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193334</v>
+        <v>194152</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>243272</v>
+        <v>245096</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3466244400206037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3057655627503025</v>
+        <v>0.3070589616867714</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3847452385960203</v>
+        <v>0.3876294616379521</v>
       </c>
     </row>
     <row r="13">
@@ -3069,19 +3069,19 @@
         <v>91908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75008</v>
+        <v>75363</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110551</v>
+        <v>110475</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2533493708306923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.206765142430497</v>
+        <v>0.2077441174627407</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.304741672958854</v>
+        <v>0.3045329421769252</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3090,19 +3090,19 @@
         <v>62889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49895</v>
+        <v>49497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77566</v>
+        <v>76919</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2333327316566666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1851229052746605</v>
+        <v>0.1836454676269157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2877884530804854</v>
+        <v>0.2853872925097633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -3111,19 +3111,19 @@
         <v>154796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132844</v>
+        <v>133374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177115</v>
+        <v>175300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2448169977490317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2100986662026593</v>
+        <v>0.2109362852105766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.280114662935952</v>
+        <v>0.2772439117004218</v>
       </c>
     </row>
     <row r="14">
@@ -3140,19 +3140,19 @@
         <v>146936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126987</v>
+        <v>128975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>165079</v>
+        <v>168934</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4050389123002934</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3500487890850189</v>
+        <v>0.3555287653350397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4550520843513611</v>
+        <v>0.4656774996666372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -3161,19 +3161,19 @@
         <v>111393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94763</v>
+        <v>96189</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127163</v>
+        <v>128615</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4132958839534138</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3515955370906884</v>
+        <v>0.356886271247642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4718055001231605</v>
+        <v>0.4771915098575875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>244</v>
@@ -3182,19 +3182,19 @@
         <v>258329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>232164</v>
+        <v>232670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283595</v>
+        <v>285103</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4085585622303646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3671772709075256</v>
+        <v>0.3679769087096434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4485174050043547</v>
+        <v>0.4509029919822606</v>
       </c>
     </row>
     <row r="15">
@@ -3286,19 +3286,19 @@
         <v>72843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57867</v>
+        <v>57678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88731</v>
+        <v>89444</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1825634169879484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1450307129802897</v>
+        <v>0.1445565525528494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2223827802617827</v>
+        <v>0.2241700040503952</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -3307,19 +3307,19 @@
         <v>86035</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71557</v>
+        <v>69752</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103087</v>
+        <v>103124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2643383755948205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2198539136251619</v>
+        <v>0.2143079133110025</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3167299654502951</v>
+        <v>0.3168424601967026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -3328,19 +3328,19 @@
         <v>158878</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>137729</v>
+        <v>134818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>183753</v>
+        <v>179113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2193012526601609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1901090452376045</v>
+        <v>0.186091156652648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2536360183754179</v>
+        <v>0.2472320195750966</v>
       </c>
     </row>
     <row r="17">
@@ -3357,19 +3357,19 @@
         <v>77369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63241</v>
+        <v>62041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95767</v>
+        <v>93813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1939062011886669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1584980541289024</v>
+        <v>0.1554914345649368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2400158765206247</v>
+        <v>0.2351206414663025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -3378,19 +3378,19 @@
         <v>57261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45306</v>
+        <v>45924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74715</v>
+        <v>73490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1759305439693439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1392010358709682</v>
+        <v>0.1410988515892505</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2295569259064779</v>
+        <v>0.2257929651395427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>133</v>
@@ -3399,19 +3399,19 @@
         <v>134630</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113909</v>
+        <v>113465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>156750</v>
+        <v>155224</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1858305414479109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.157229671072212</v>
+        <v>0.1566163549953178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2163642488791758</v>
+        <v>0.214257626524694</v>
       </c>
     </row>
     <row r="18">
@@ -3428,19 +3428,19 @@
         <v>248789</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>229966</v>
+        <v>229160</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>267142</v>
+        <v>269345</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6235303818233847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5763545539752829</v>
+        <v>0.5743351092149158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6695277095237786</v>
+        <v>0.6750473043690687</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>171</v>
@@ -3449,19 +3449,19 @@
         <v>182178</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>163690</v>
+        <v>163501</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>198585</v>
+        <v>200797</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5597310804358356</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5029272642029879</v>
+        <v>0.5023470806562147</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6101400509061622</v>
+        <v>0.6169374848159667</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>414</v>
@@ -3470,19 +3470,19 @@
         <v>430967</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>402425</v>
+        <v>403823</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>455158</v>
+        <v>458887</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5948682058919282</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5554711806695661</v>
+        <v>0.5574005025237726</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6282597480666533</v>
+        <v>0.6334062429155592</v>
       </c>
     </row>
     <row r="19">
@@ -3574,19 +3574,19 @@
         <v>343595</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>293</v>
@@ -3595,19 +3595,19 @@
         <v>297689</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -3616,19 +3616,19 @@
         <v>641283</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.261928116416238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="21">
@@ -3645,19 +3645,19 @@
         <v>303172</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>274480</v>
+        <v>273334</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>338889</v>
+        <v>336286</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2140535988257846</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1937955574062273</v>
+        <v>0.192986362623363</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2392714991365917</v>
+        <v>0.2374333203977403</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>217</v>
@@ -3666,19 +3666,19 @@
         <v>219865</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>195482</v>
+        <v>193616</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>248411</v>
+        <v>248014</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2130507774776809</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1894237968990433</v>
+        <v>0.1876158275493797</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2407128147558331</v>
+        <v>0.2403274285245648</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>502</v>
@@ -3687,19 +3687,19 @@
         <v>523036</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>479633</v>
+        <v>480235</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>563387</v>
+        <v>563254</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.21363090330693</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1959031975847818</v>
+        <v>0.1961488359148043</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2301117620927632</v>
+        <v>0.2300575050809266</v>
       </c>
     </row>
     <row r="22">
@@ -3716,19 +3716,19 @@
         <v>769570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>498</v>
@@ -3737,19 +3737,19 @@
         <v>514429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1217</v>
@@ -3758,19 +3758,19 @@
         <v>1283998</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5244409802768321</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="23">
